--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -1766,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEACH\Aptech\NodeJS\batch-33\batch-33-nodejs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEACH\Aptech\NodeJS\batch-32\batch-32-nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -628,7 +628,16 @@
     <t>Hiển thị tất cả các mặt hàng có tồn kho &lt;= , &gt;=, &lt;, &gt;, =  X, và chi tiết danh mục, nhà cung cấp</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Hiển thị tất cả các khách hàng có năm sinh X, và trả về 1 trường năm sinh trong dữ liệu</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các đơn hàng có trạng thái là &lt;status&gt; có ngày tạo ngoài khoảng &lt;fromDate&gt; và &lt;toDate&gt;</t>
   </si>
 </sst>
 </file>
@@ -775,7 +784,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +885,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1005,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,6 +1461,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1766,8 +1788,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A52" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1934,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>95</v>
@@ -28461,10 +28483,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29063,11 +29085,11 @@
       <c r="Z17" s="54"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="173">
-        <v>6</v>
+      <c r="A18" s="173" t="s">
+        <v>199</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="C18" s="170" t="s">
         <v>98</v>
@@ -29099,17 +29121,17 @@
       <c r="Z18" s="54"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="75">
-        <v>7</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>57</v>
+      <c r="A19" s="173">
+        <v>6</v>
+      </c>
+      <c r="B19" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="170"/>
       <c r="F19" s="54"/>
@@ -29134,12 +29156,12 @@
       <c r="Y19" s="54"/>
       <c r="Z19" s="54"/>
     </row>
-    <row r="20" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A20" s="75" t="s">
-        <v>185</v>
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="75">
+        <v>7</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="170" t="s">
         <v>98</v>
@@ -29172,10 +29194,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C21" s="170" t="s">
         <v>98</v>
@@ -29207,11 +29229,11 @@
       <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A22" s="75">
-        <v>9</v>
-      </c>
-      <c r="B22" s="167" t="s">
-        <v>59</v>
+      <c r="A22" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="166" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="170" t="s">
         <v>98</v>
@@ -29243,11 +29265,11 @@
       <c r="Z22" s="54"/>
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A23" s="75">
-        <v>10</v>
+      <c r="A23" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>98</v>
@@ -29280,10 +29302,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="75">
-        <v>11</v>
-      </c>
-      <c r="B24" s="166" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="167" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="170" t="s">
         <v>98</v>
@@ -29316,10 +29338,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="170" t="s">
         <v>98</v>
@@ -29352,10 +29374,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="170" t="s">
         <v>98</v>
@@ -29387,17 +29409,17 @@
       <c r="Z26" s="54"/>
     </row>
     <row r="27" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A27" s="174">
-        <v>14</v>
-      </c>
-      <c r="B27" s="168" t="s">
-        <v>64</v>
+      <c r="A27" s="75">
+        <v>12</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="54"/>
@@ -29423,21 +29445,19 @@
       <c r="Z27" s="54"/>
     </row>
     <row r="28" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A28" s="174">
-        <v>15</v>
-      </c>
-      <c r="B28" s="168" t="s">
-        <v>88</v>
+      <c r="A28" s="75">
+        <v>13</v>
+      </c>
+      <c r="B28" s="166" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="170" t="s">
-        <v>123</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E28" s="170"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
@@ -29462,16 +29482,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="174">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="54"/>
@@ -29498,18 +29518,20 @@
     </row>
     <row r="30" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="174">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C30" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="170"/>
+        <v>103</v>
+      </c>
+      <c r="E30" s="170" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
@@ -29534,16 +29556,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="174">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="168" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29570,16 +29592,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="174">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="168" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29606,16 +29628,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="174">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="170" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
@@ -29642,13 +29664,17 @@
     </row>
     <row r="34" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="174">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+        <v>68</v>
+      </c>
+      <c r="C34" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>103</v>
+      </c>
       <c r="E34" s="170"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
@@ -29674,13 +29700,17 @@
     </row>
     <row r="35" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="174">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="168" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+        <v>69</v>
+      </c>
+      <c r="C35" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="170" t="s">
+        <v>100</v>
+      </c>
       <c r="E35" s="170"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -29704,44 +29734,44 @@
       <c r="Y35" s="54"/>
       <c r="Z35" s="54"/>
     </row>
-    <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A36" s="174">
-        <v>23</v>
-      </c>
-      <c r="B36" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
+    <row r="36" spans="1:26" s="73" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A36" s="198">
+        <v>21</v>
+      </c>
+      <c r="B36" s="199" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="168" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="170"/>
       <c r="D37" s="170"/>
@@ -29770,17 +29800,13 @@
     </row>
     <row r="38" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="174">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="170"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -29806,17 +29832,13 @@
     </row>
     <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="170"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -29842,16 +29864,18 @@
     </row>
     <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="174">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170" t="s">
-        <v>171</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C40" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="170"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
@@ -29876,13 +29900,17 @@
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="168" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+        <v>75</v>
+      </c>
+      <c r="C41" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="170" t="s">
+        <v>101</v>
+      </c>
       <c r="E41" s="170"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -29908,15 +29936,15 @@
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
       <c r="E42" s="170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -29942,16 +29970,14 @@
     </row>
     <row r="43" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="174">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
-      <c r="E43" s="170" t="s">
-        <v>173</v>
-      </c>
+      <c r="E43" s="170"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
@@ -29976,14 +30002,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="174">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
+      <c r="E44" s="170" t="s">
+        <v>172</v>
+      </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
@@ -30008,14 +30036,16 @@
     </row>
     <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="174">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="168" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
+      <c r="E45" s="170" t="s">
+        <v>173</v>
+      </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
@@ -30040,10 +30070,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="174">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -30072,10 +30102,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A47" s="174">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -30103,11 +30133,15 @@
       <c r="Z47" s="54"/>
     </row>
     <row r="48" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A48" s="175"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+      <c r="A48" s="174">
+        <v>33</v>
+      </c>
+      <c r="B48" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="H48" s="54"/>
@@ -30131,11 +30165,15 @@
       <c r="Z48" s="54"/>
     </row>
     <row r="49" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A49" s="175"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
+      <c r="A49" s="174">
+        <v>34</v>
+      </c>
+      <c r="B49" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="H49" s="54"/>
@@ -57122,9 +57160,65 @@
       <c r="Y1012" s="54"/>
       <c r="Z1012" s="54"/>
     </row>
+    <row r="1013" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1013" s="175"/>
+      <c r="B1013" s="54"/>
+      <c r="C1013" s="54"/>
+      <c r="D1013" s="54"/>
+      <c r="E1013" s="54"/>
+      <c r="F1013" s="54"/>
+      <c r="G1013" s="54"/>
+      <c r="H1013" s="54"/>
+      <c r="I1013" s="54"/>
+      <c r="J1013" s="54"/>
+      <c r="K1013" s="54"/>
+      <c r="L1013" s="54"/>
+      <c r="M1013" s="54"/>
+      <c r="N1013" s="54"/>
+      <c r="O1013" s="54"/>
+      <c r="P1013" s="54"/>
+      <c r="Q1013" s="54"/>
+      <c r="R1013" s="54"/>
+      <c r="S1013" s="54"/>
+      <c r="T1013" s="54"/>
+      <c r="U1013" s="54"/>
+      <c r="V1013" s="54"/>
+      <c r="W1013" s="54"/>
+      <c r="X1013" s="54"/>
+      <c r="Y1013" s="54"/>
+      <c r="Z1013" s="54"/>
+    </row>
+    <row r="1014" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1014" s="175"/>
+      <c r="B1014" s="54"/>
+      <c r="C1014" s="54"/>
+      <c r="D1014" s="54"/>
+      <c r="E1014" s="54"/>
+      <c r="F1014" s="54"/>
+      <c r="G1014" s="54"/>
+      <c r="H1014" s="54"/>
+      <c r="I1014" s="54"/>
+      <c r="J1014" s="54"/>
+      <c r="K1014" s="54"/>
+      <c r="L1014" s="54"/>
+      <c r="M1014" s="54"/>
+      <c r="N1014" s="54"/>
+      <c r="O1014" s="54"/>
+      <c r="P1014" s="54"/>
+      <c r="Q1014" s="54"/>
+      <c r="R1014" s="54"/>
+      <c r="S1014" s="54"/>
+      <c r="T1014" s="54"/>
+      <c r="U1014" s="54"/>
+      <c r="V1014" s="54"/>
+      <c r="W1014" s="54"/>
+      <c r="X1014" s="54"/>
+      <c r="Y1014" s="54"/>
+      <c r="Z1014" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEACH\Aptech\NodeJS\batch-32\batch-32-nodejs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEACH\Aptech\NodeJS\batch-33\batch-33-nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
   <si>
     <t>No.</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>Orders -&gt; OrderDetails</t>
-  </si>
-  <si>
-    <t>DONE</t>
   </si>
   <si>
     <t>customers</t>
@@ -1435,6 +1432,13 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1461,13 +1465,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1788,8 +1785,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1810,7 +1807,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1839,7 +1836,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -1992,10 +1989,10 @@
     <row r="7" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="81"/>
@@ -2066,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>122</v>
       </c>
       <c r="D9" s="130"/>
       <c r="E9" s="131"/>
@@ -2077,10 +2074,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="130"/>
       <c r="I9" s="130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
@@ -2104,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="134" t="s">
         <v>95</v>
@@ -2138,10 +2135,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="134" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" s="134" t="s">
-        <v>117</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="134"/>
@@ -2172,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="134" t="s">
         <v>119</v>
-      </c>
-      <c r="C12" s="134" t="s">
-        <v>120</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="134"/>
@@ -2206,10 +2203,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="134"/>
@@ -2243,7 +2240,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="134"/>
@@ -2274,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="134" t="s">
         <v>95</v>
@@ -2308,10 +2305,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="134"/>
@@ -2342,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="134" t="s">
         <v>95</v>
@@ -2400,17 +2397,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="188" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="188"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
+      <c r="A19" s="191" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2630,10 +2627,10 @@
     <row r="25" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="79"/>
       <c r="B25" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="81"/>
@@ -2726,17 +2723,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="188"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3028,10 +3025,10 @@
     <row r="36" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="82"/>
       <c r="E36" s="81"/>
@@ -3100,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>95</v>
@@ -3134,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
@@ -3168,10 +3165,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="138"/>
       <c r="E40" s="139"/>
@@ -3226,17 +3223,17 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="193"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="196"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3528,10 +3525,10 @@
     <row r="50" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="79"/>
       <c r="B50" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="82"/>
       <c r="E50" s="81"/>
@@ -3600,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>95</v>
@@ -3634,10 +3631,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
@@ -3668,10 +3665,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" s="138"/>
       <c r="E54" s="139"/>
@@ -3726,17 +3723,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="194" t="s">
+      <c r="A56" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="194"/>
-      <c r="C56" s="194"/>
-      <c r="D56" s="194"/>
-      <c r="E56" s="194"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="197"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="197"/>
+      <c r="G56" s="197"/>
+      <c r="H56" s="197"/>
+      <c r="I56" s="197"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3930,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I61" s="43"/>
       <c r="J61" s="77"/>
@@ -4104,10 +4101,10 @@
         <v>9</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="82"/>
       <c r="E66" s="81"/>
@@ -4140,10 +4137,10 @@
         <v>10</v>
       </c>
       <c r="B67" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="100" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>122</v>
       </c>
       <c r="D67" s="101"/>
       <c r="E67" s="100"/>
@@ -4151,7 +4148,7 @@
       <c r="G67" s="99"/>
       <c r="H67" s="102"/>
       <c r="I67" s="99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J67" s="103"/>
       <c r="K67" s="103"/>
@@ -4176,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="B68" s="99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="104" t="s">
         <v>95</v>
@@ -4210,10 +4207,10 @@
         <v>12</v>
       </c>
       <c r="B69" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="100" t="s">
         <v>129</v>
-      </c>
-      <c r="C69" s="100" t="s">
-        <v>130</v>
       </c>
       <c r="D69" s="101"/>
       <c r="E69" s="100"/>
@@ -4221,7 +4218,7 @@
       <c r="G69" s="99"/>
       <c r="H69" s="102"/>
       <c r="I69" s="99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J69" s="103"/>
       <c r="K69" s="103"/>
@@ -4270,13 +4267,13 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="195" t="s">
+      <c r="A71" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
-      <c r="D71" s="196"/>
-      <c r="E71" s="196"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="199"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
@@ -4397,7 +4394,7 @@
       <c r="E74" s="148"/>
       <c r="F74" s="149"/>
       <c r="G74" s="145" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H74" s="145" t="s">
         <v>35</v>
@@ -4592,7 +4589,7 @@
         <v>42</v>
       </c>
       <c r="H79" s="145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I79" s="145"/>
       <c r="J79" s="77"/>
@@ -4656,10 +4653,10 @@
     <row r="81" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="79"/>
       <c r="B81" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="81" t="s">
         <v>189</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>190</v>
       </c>
       <c r="D81" s="82"/>
       <c r="E81" s="81"/>
@@ -4688,10 +4685,10 @@
     <row r="82" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="79"/>
       <c r="B82" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C82" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D82" s="82"/>
       <c r="E82" s="81"/>
@@ -4724,10 +4721,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="146" t="s">
         <v>192</v>
-      </c>
-      <c r="C83" s="146" t="s">
-        <v>193</v>
       </c>
       <c r="D83" s="150">
         <v>50</v>
@@ -4808,10 +4805,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="107" t="s">
         <v>124</v>
-      </c>
-      <c r="C85" s="107" t="s">
-        <v>125</v>
       </c>
       <c r="D85" s="108"/>
       <c r="E85" s="109"/>
@@ -4856,10 +4853,10 @@
         <v>11</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86" s="108"/>
       <c r="E86" s="109"/>
@@ -4904,10 +4901,10 @@
         <v>12</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" s="108"/>
       <c r="E87" s="109"/>
@@ -4976,13 +4973,13 @@
       <c r="Z88" s="77"/>
     </row>
     <row r="89" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="197" t="s">
+      <c r="A89" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="196"/>
-      <c r="C89" s="196"/>
-      <c r="D89" s="196"/>
-      <c r="E89" s="196"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="199"/>
+      <c r="D89" s="199"/>
+      <c r="E89" s="199"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="50"/>
@@ -5198,10 +5195,10 @@
     <row r="95" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="79"/>
       <c r="B95" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C95" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95" s="82"/>
       <c r="E95" s="81"/>
@@ -5292,13 +5289,13 @@
       <c r="Z97" s="54"/>
     </row>
     <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="195" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="196"/>
-      <c r="C98" s="196"/>
-      <c r="D98" s="196"/>
-      <c r="E98" s="196"/>
+      <c r="A98" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="199"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="199"/>
       <c r="F98" s="50"/>
       <c r="G98" s="50"/>
       <c r="H98" s="50"/>
@@ -5408,10 +5405,10 @@
     <row r="101" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="79"/>
       <c r="B101" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>189</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>190</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="81"/>
@@ -5506,13 +5503,13 @@
       <c r="Z103" s="77"/>
     </row>
     <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="B104" s="196"/>
-      <c r="C104" s="196"/>
-      <c r="D104" s="196"/>
-      <c r="E104" s="196"/>
+      <c r="A104" s="200" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="199"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="199"/>
       <c r="F104" s="52"/>
       <c r="G104" s="52"/>
       <c r="H104" s="50"/>
@@ -6290,13 +6287,13 @@
       <c r="AJ157" s="77"/>
     </row>
     <row r="158" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A158" s="189" t="s">
-        <v>109</v>
-      </c>
-      <c r="B158" s="190"/>
-      <c r="C158" s="190"/>
-      <c r="D158" s="190"/>
-      <c r="E158" s="190"/>
+      <c r="A158" s="192" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" s="193"/>
+      <c r="C158" s="193"/>
+      <c r="D158" s="193"/>
+      <c r="E158" s="193"/>
       <c r="F158" s="58"/>
       <c r="G158" s="58"/>
       <c r="H158" s="57"/>
@@ -6428,7 +6425,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C161" s="120" t="s">
         <v>95</v>
@@ -6472,14 +6469,14 @@
         <v>3</v>
       </c>
       <c r="B162" s="119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C162" s="120" t="s">
         <v>95</v>
       </c>
       <c r="D162" s="121"/>
       <c r="E162" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F162" s="119"/>
       <c r="G162" s="119"/>
@@ -6518,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C163" s="120" t="s">
         <v>95</v>
@@ -6562,7 +6559,7 @@
         <v>5</v>
       </c>
       <c r="B164" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C164" s="120" t="s">
         <v>95</v>
@@ -6606,10 +6603,10 @@
         <v>6</v>
       </c>
       <c r="B165" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="120" t="s">
         <v>116</v>
-      </c>
-      <c r="C165" s="120" t="s">
-        <v>117</v>
       </c>
       <c r="D165" s="121"/>
       <c r="E165" s="122"/>
@@ -6617,7 +6614,7 @@
       <c r="G165" s="119"/>
       <c r="H165" s="123"/>
       <c r="I165" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J165" s="77"/>
       <c r="K165" s="77"/>
@@ -6652,10 +6649,10 @@
         <v>7</v>
       </c>
       <c r="B166" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" s="120" t="s">
         <v>119</v>
-      </c>
-      <c r="C166" s="120" t="s">
-        <v>120</v>
       </c>
       <c r="D166" s="121"/>
       <c r="E166" s="122"/>
@@ -6730,13 +6727,13 @@
       <c r="AJ167" s="77"/>
     </row>
     <row r="168" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="B168" s="190"/>
-      <c r="C168" s="190"/>
-      <c r="D168" s="190"/>
-      <c r="E168" s="190"/>
+      <c r="A168" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="B168" s="193"/>
+      <c r="C168" s="193"/>
+      <c r="D168" s="193"/>
+      <c r="E168" s="193"/>
       <c r="F168" s="58"/>
       <c r="G168" s="58"/>
       <c r="H168" s="57"/>
@@ -6878,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C171" s="120" t="s">
         <v>95</v>
@@ -6922,14 +6919,14 @@
         <v>3</v>
       </c>
       <c r="B172" s="119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C172" s="120" t="s">
         <v>95</v>
       </c>
       <c r="D172" s="121"/>
       <c r="E172" s="122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F172" s="119"/>
       <c r="G172" s="119"/>
@@ -6968,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="B173" s="119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C173" s="120" t="s">
         <v>95</v>
@@ -7012,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C174" s="120" t="s">
         <v>95</v>
@@ -7056,10 +7053,10 @@
         <v>6</v>
       </c>
       <c r="B175" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C175" s="120" t="s">
         <v>116</v>
-      </c>
-      <c r="C175" s="120" t="s">
-        <v>117</v>
       </c>
       <c r="D175" s="121"/>
       <c r="E175" s="122"/>
@@ -7067,7 +7064,7 @@
       <c r="G175" s="119"/>
       <c r="H175" s="123"/>
       <c r="I175" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J175" s="77"/>
       <c r="K175" s="77"/>
@@ -7102,10 +7099,10 @@
         <v>7</v>
       </c>
       <c r="B176" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" s="120" t="s">
         <v>119</v>
-      </c>
-      <c r="C176" s="120" t="s">
-        <v>120</v>
       </c>
       <c r="D176" s="121"/>
       <c r="E176" s="122"/>
@@ -7149,13 +7146,13 @@
         <v>34</v>
       </c>
       <c r="C177" s="120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D177" s="121"/>
       <c r="E177" s="122"/>
       <c r="F177" s="119"/>
       <c r="G177" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H177" s="123"/>
       <c r="I177" s="119"/>
@@ -7190,7 +7187,7 @@
     <row r="178" spans="1:36" s="105" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A178" s="119"/>
       <c r="B178" s="119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178" s="120" t="s">
         <v>94</v>
@@ -7232,10 +7229,10 @@
     <row r="179" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="119"/>
       <c r="B179" s="119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" s="120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D179" s="121"/>
       <c r="E179" s="122"/>
@@ -7274,7 +7271,7 @@
     <row r="180" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="119"/>
       <c r="B180" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" s="120" t="s">
         <v>94</v>
@@ -7316,10 +7313,10 @@
     <row r="181" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="119"/>
       <c r="B181" s="119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181" s="120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D181" s="121"/>
       <c r="E181" s="122"/>
@@ -7394,13 +7391,13 @@
       <c r="AJ182" s="77"/>
     </row>
     <row r="183" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="189" t="s">
-        <v>133</v>
-      </c>
-      <c r="B183" s="190"/>
-      <c r="C183" s="190"/>
-      <c r="D183" s="190"/>
-      <c r="E183" s="190"/>
+      <c r="A183" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="B183" s="193"/>
+      <c r="C183" s="193"/>
+      <c r="D183" s="193"/>
+      <c r="E183" s="193"/>
       <c r="F183" s="58"/>
       <c r="G183" s="58"/>
       <c r="H183" s="57"/>
@@ -7588,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C187" s="120" t="s">
         <v>95</v>
@@ -7632,10 +7629,10 @@
         <v>4</v>
       </c>
       <c r="B188" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188" s="120" t="s">
         <v>135</v>
-      </c>
-      <c r="C188" s="120" t="s">
-        <v>136</v>
       </c>
       <c r="D188" s="121"/>
       <c r="E188" s="122"/>
@@ -7676,10 +7673,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C189" s="120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D189" s="121"/>
       <c r="E189" s="122"/>
@@ -7720,10 +7717,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="120" t="s">
         <v>137</v>
-      </c>
-      <c r="C190" s="120" t="s">
-        <v>138</v>
       </c>
       <c r="D190" s="121"/>
       <c r="E190" s="122"/>
@@ -28485,8 +28482,8 @@
   </sheetPr>
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28503,16 +28500,16 @@
         <v>50</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -28767,11 +28764,9 @@
       <c r="B9" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C9" s="170"/>
       <c r="D9" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="170"/>
       <c r="F9" s="54"/>
@@ -28798,16 +28793,14 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C10" s="170"/>
       <c r="D10" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="54"/>
@@ -28834,16 +28827,14 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C11" s="170"/>
       <c r="D11" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="54"/>
@@ -28873,13 +28864,11 @@
         <v>2</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C12" s="170"/>
       <c r="D12" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="170"/>
       <c r="F12" s="54"/>
@@ -28906,16 +28895,14 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C13" s="170"/>
       <c r="D13" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="170"/>
       <c r="F13" s="54"/>
@@ -28942,16 +28929,14 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="164" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C14" s="170"/>
       <c r="D14" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="170"/>
       <c r="F14" s="54"/>
@@ -28981,13 +28966,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C15" s="170"/>
       <c r="D15" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="54"/>
@@ -29019,11 +29002,9 @@
       <c r="B16" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="170"/>
+      <c r="D16" s="170" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" s="170" t="s">
-        <v>99</v>
       </c>
       <c r="E16" s="170"/>
       <c r="F16" s="54"/>
@@ -29055,11 +29036,9 @@
       <c r="B17" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="170" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" s="170" t="s">
-        <v>99</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="54"/>
@@ -29086,16 +29065,14 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="170" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="170" t="s">
-        <v>99</v>
       </c>
       <c r="E18" s="170"/>
       <c r="F18" s="54"/>
@@ -29127,11 +29104,9 @@
       <c r="B19" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="170" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="170"/>
       <c r="F19" s="54"/>
@@ -29163,11 +29138,9 @@
       <c r="B20" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C20" s="170"/>
       <c r="D20" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="170"/>
       <c r="F20" s="54"/>
@@ -29194,16 +29167,14 @@
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C21" s="170"/>
       <c r="D21" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="170"/>
       <c r="F21" s="54"/>
@@ -29230,16 +29201,14 @@
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="170" t="s">
-        <v>98</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C22" s="170"/>
       <c r="D22" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="170"/>
       <c r="F22" s="54"/>
@@ -29266,16 +29235,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="166" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C23" s="170"/>
       <c r="D23" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="170"/>
       <c r="F23" s="54"/>
@@ -29307,11 +29274,9 @@
       <c r="B24" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C24" s="170"/>
       <c r="D24" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="170"/>
       <c r="F24" s="54"/>
@@ -29343,11 +29308,9 @@
       <c r="B25" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C25" s="170"/>
       <c r="D25" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="54"/>
@@ -29379,11 +29342,9 @@
       <c r="B26" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C26" s="170"/>
       <c r="D26" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="170"/>
       <c r="F26" s="54"/>
@@ -29415,11 +29376,9 @@
       <c r="B27" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C27" s="170"/>
       <c r="D27" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="54"/>
@@ -29451,11 +29410,9 @@
       <c r="B28" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C28" s="170"/>
       <c r="D28" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="170"/>
       <c r="F28" s="54"/>
@@ -29487,11 +29444,9 @@
       <c r="B29" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C29" s="170"/>
       <c r="D29" s="170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="54"/>
@@ -29523,14 +29478,12 @@
       <c r="B30" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C30" s="170"/>
       <c r="D30" s="170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="170" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -29561,11 +29514,9 @@
       <c r="B31" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C31" s="170"/>
       <c r="D31" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29597,11 +29548,9 @@
       <c r="B32" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C32" s="170"/>
       <c r="D32" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29633,11 +29582,9 @@
       <c r="B33" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C33" s="170"/>
       <c r="D33" s="170" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
@@ -29669,11 +29616,9 @@
       <c r="B34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C34" s="170"/>
       <c r="D34" s="170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="170"/>
       <c r="F34" s="54"/>
@@ -29705,11 +29650,9 @@
       <c r="B35" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C35" s="170"/>
       <c r="D35" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="170"/>
       <c r="F35" s="54"/>
@@ -29735,15 +29678,15 @@
       <c r="Z35" s="54"/>
     </row>
     <row r="36" spans="1:26" s="73" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A36" s="198">
+      <c r="A36" s="188">
         <v>21</v>
       </c>
-      <c r="B36" s="199" t="s">
+      <c r="B36" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
       <c r="H36" s="111"/>
@@ -29869,11 +29812,9 @@
       <c r="B40" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C40" s="170"/>
       <c r="D40" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="170"/>
       <c r="F40" s="54"/>
@@ -29905,11 +29846,9 @@
       <c r="B41" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="170" t="s">
-        <v>98</v>
-      </c>
+      <c r="C41" s="170"/>
       <c r="D41" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="170"/>
       <c r="F41" s="54"/>
@@ -29944,7 +29883,7 @@
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
       <c r="E42" s="170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -30010,7 +29949,7 @@
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
       <c r="E44" s="170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -30044,7 +29983,7 @@
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
       <c r="E45" s="170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -30105,7 +30044,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -57240,13 +57179,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="A3" s="192" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="57"/>
@@ -57326,10 +57265,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="70"/>
@@ -57338,7 +57277,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="67"/>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
@@ -57346,10 +57285,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>142</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
@@ -57363,10 +57302,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="70"/>
@@ -57374,10 +57313,10 @@
       <c r="G9" s="67"/>
       <c r="H9" s="71"/>
       <c r="I9" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M9" s="74"/>
     </row>
@@ -57391,10 +57330,10 @@
       <c r="G10" s="67"/>
       <c r="H10" s="71"/>
       <c r="I10" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M10" s="74"/>
     </row>
@@ -57421,36 +57360,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L14" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="74" t="s">
         <v>159</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
         <v>150</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>151</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>153</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>154</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
-        <v>156</v>
-      </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -57458,117 +57397,117 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -28483,7 +28483,7 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Hiển thị tất cả các đơn hàng có trạng thái là &lt;status&gt; có ngày tạo ngoài khoảng &lt;fromDate&gt; và &lt;toDate&gt;</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -28482,8 +28485,8 @@
   </sheetPr>
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28764,7 +28767,9 @@
       <c r="B9" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="170"/>
+      <c r="C9" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D9" s="170" t="s">
         <v>100</v>
       </c>
@@ -28798,7 +28803,9 @@
       <c r="B10" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="170"/>
+      <c r="C10" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D10" s="170" t="s">
         <v>100</v>
       </c>
@@ -28832,7 +28839,9 @@
       <c r="B11" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="170"/>
+      <c r="C11" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D11" s="170" t="s">
         <v>100</v>
       </c>
@@ -28866,7 +28875,9 @@
       <c r="B12" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="170"/>
+      <c r="C12" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D12" s="170" t="s">
         <v>100</v>
       </c>
@@ -28900,7 +28911,9 @@
       <c r="B13" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="170"/>
+      <c r="C13" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D13" s="170" t="s">
         <v>100</v>
       </c>
@@ -28934,7 +28947,9 @@
       <c r="B14" s="164" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="170"/>
+      <c r="C14" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D14" s="170" t="s">
         <v>100</v>
       </c>
@@ -28968,7 +28983,9 @@
       <c r="B15" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="170"/>
+      <c r="C15" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D15" s="170" t="s">
         <v>100</v>
       </c>
@@ -29002,7 +29019,9 @@
       <c r="B16" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="170"/>
+      <c r="C16" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D16" s="170" t="s">
         <v>98</v>
       </c>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -28485,8 +28485,8 @@
   </sheetPr>
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29055,7 +29055,9 @@
       <c r="B17" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="170"/>
+      <c r="C17" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D17" s="170" t="s">
         <v>98</v>
       </c>
@@ -29089,7 +29091,9 @@
       <c r="B18" s="165" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="170"/>
+      <c r="C18" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" s="170" t="s">
         <v>98</v>
       </c>
@@ -29123,7 +29127,9 @@
       <c r="B19" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="170"/>
+      <c r="C19" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" s="170" t="s">
         <v>98</v>
       </c>
@@ -29157,7 +29163,9 @@
       <c r="B20" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="170"/>
+      <c r="C20" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" s="170" t="s">
         <v>99</v>
       </c>
@@ -29191,7 +29199,9 @@
       <c r="B21" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="170"/>
+      <c r="C21" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" s="170" t="s">
         <v>99</v>
       </c>
@@ -29225,7 +29235,9 @@
       <c r="B22" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="170"/>
+      <c r="C22" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" s="170" t="s">
         <v>99</v>
       </c>
@@ -29259,7 +29271,9 @@
       <c r="B23" s="166" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="170"/>
+      <c r="C23" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" s="170" t="s">
         <v>99</v>
       </c>
@@ -29293,7 +29307,9 @@
       <c r="B24" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="170"/>
+      <c r="C24" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" s="170" t="s">
         <v>99</v>
       </c>
@@ -29327,7 +29343,9 @@
       <c r="B25" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="170"/>
+      <c r="C25" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D25" s="170" t="s">
         <v>99</v>
       </c>
@@ -29361,7 +29379,9 @@
       <c r="B26" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="170"/>
+      <c r="C26" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D26" s="170" t="s">
         <v>99</v>
       </c>
@@ -29395,7 +29415,9 @@
       <c r="B27" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="170"/>
+      <c r="C27" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D27" s="170" t="s">
         <v>99</v>
       </c>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -28486,7 +28486,7 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29451,7 +29451,9 @@
       <c r="B28" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="170"/>
+      <c r="C28" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D28" s="170" t="s">
         <v>99</v>
       </c>
@@ -29485,7 +29487,9 @@
       <c r="B29" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="170"/>
+      <c r="C29" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D29" s="170" t="s">
         <v>101</v>
       </c>
@@ -29519,7 +29523,9 @@
       <c r="B30" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="170"/>
+      <c r="C30" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D30" s="170" t="s">
         <v>102</v>
       </c>
@@ -29555,7 +29561,9 @@
       <c r="B31" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="170"/>
+      <c r="C31" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D31" s="170" t="s">
         <v>99</v>
       </c>
@@ -29589,7 +29597,9 @@
       <c r="B32" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="170"/>
+      <c r="C32" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D32" s="170" t="s">
         <v>100</v>
       </c>
@@ -29623,7 +29633,9 @@
       <c r="B33" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="170"/>
+      <c r="C33" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D33" s="170" t="s">
         <v>107</v>
       </c>
@@ -29657,7 +29669,9 @@
       <c r="B34" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="170"/>
+      <c r="C34" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D34" s="170" t="s">
         <v>102</v>
       </c>
@@ -29691,7 +29705,9 @@
       <c r="B35" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="170"/>
+      <c r="C35" s="170" t="s">
+        <v>201</v>
+      </c>
       <c r="D35" s="170" t="s">
         <v>99</v>
       </c>
@@ -29718,37 +29734,39 @@
       <c r="Y35" s="54"/>
       <c r="Z35" s="54"/>
     </row>
-    <row r="36" spans="1:26" s="73" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A36" s="188">
+    <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A36" s="174">
         <v>21</v>
       </c>
-      <c r="B36" s="189" t="s">
+      <c r="B36" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
+      <c r="C36" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
@@ -29846,39 +29864,39 @@
       <c r="Y39" s="54"/>
       <c r="Z39" s="54"/>
     </row>
-    <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A40" s="174">
+    <row r="40" spans="1:26" s="73" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A40" s="188">
         <v>25</v>
       </c>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170" t="s">
+      <c r="C40" s="190"/>
+      <c r="D40" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Hiển thị top 5 các khách hàng mua hàng với tổng số tiền mua được từ cao đến thấp trong khoảng từ ngày, đến ngày</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách các mức giảm giá của cửa hàng</t>
   </si>
   <si>
     <t>Hiển thị tất cả danh mục (Categories) với tổng số tiền bán được trong mỗi danh mục</t>
@@ -639,12 +636,15 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Hiển thị danh sách các mức giảm giá của sản phẩm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -783,8 +783,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,12 +891,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1020,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,13 +1435,15 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1810,7 +1812,7 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1839,7 +1841,7 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -1921,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1959,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7">
         <v>50</v>
@@ -1992,10 +1994,10 @@
     <row r="7" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="81"/>
@@ -2031,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
         <v>500</v>
@@ -2066,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>121</v>
       </c>
       <c r="D9" s="130"/>
       <c r="E9" s="131"/>
@@ -2077,10 +2079,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="130"/>
       <c r="I9" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J9" s="118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
@@ -2104,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="134"/>
@@ -2138,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="134" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="134" t="s">
-        <v>116</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="134"/>
@@ -2172,10 +2174,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="134" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="134" t="s">
-        <v>119</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="134"/>
@@ -2206,10 +2208,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="134"/>
@@ -2243,7 +2245,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="134"/>
@@ -2274,10 +2276,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="134"/>
@@ -2308,10 +2310,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="134"/>
@@ -2342,10 +2344,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="134"/>
@@ -2400,17 +2402,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="191" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
+      <c r="A19" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="193"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2483,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -2521,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="17">
         <v>100</v>
@@ -2557,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="17">
         <v>50</v>
@@ -2595,7 +2597,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="17">
         <v>50</v>
@@ -2630,10 +2632,10 @@
     <row r="25" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="79"/>
       <c r="B25" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="81"/>
@@ -2669,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="17">
         <v>500</v>
@@ -2726,17 +2728,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="191" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
+      <c r="A28" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2809,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="24">
         <v>50</v>
@@ -2847,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="28">
         <v>50</v>
@@ -2883,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="28">
         <v>50</v>
@@ -2919,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="28">
         <v>50</v>
@@ -2957,7 +2959,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="28">
         <v>500</v>
@@ -2995,7 +2997,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="93">
         <v>50</v>
@@ -3028,10 +3030,10 @@
     <row r="36" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="82"/>
       <c r="E36" s="81"/>
@@ -3100,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="93"/>
       <c r="E38" s="94"/>
@@ -3134,10 +3136,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="137" t="s">
         <v>134</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>135</v>
       </c>
       <c r="D39" s="138"/>
       <c r="E39" s="139"/>
@@ -3168,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="138"/>
       <c r="E40" s="139"/>
@@ -3226,17 +3228,17 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="194" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="195"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="196" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="198"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3309,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="32">
         <v>50</v>
@@ -3347,7 +3349,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="36">
         <v>50</v>
@@ -3383,7 +3385,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="36">
         <v>50</v>
@@ -3419,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="36">
         <v>50</v>
@@ -3457,7 +3459,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="36">
         <v>500</v>
@@ -3495,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="97">
         <v>50</v>
@@ -3528,10 +3530,10 @@
     <row r="50" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="79"/>
       <c r="B50" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="82"/>
       <c r="E50" s="81"/>
@@ -3600,10 +3602,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="93"/>
       <c r="E52" s="94"/>
@@ -3634,10 +3636,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="137" t="s">
         <v>134</v>
-      </c>
-      <c r="C53" s="137" t="s">
-        <v>135</v>
       </c>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
@@ -3668,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="138"/>
       <c r="E54" s="139"/>
@@ -3726,17 +3728,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="197" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="197"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="197"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="197"/>
-      <c r="G56" s="197"/>
-      <c r="H56" s="197"/>
-      <c r="I56" s="197"/>
+      <c r="A56" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3809,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
@@ -3847,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" s="45">
         <v>50</v>
@@ -3930,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I61" s="43"/>
       <c r="J61" s="77"/>
@@ -3995,7 +3997,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" s="183"/>
       <c r="E63" s="184"/>
@@ -4033,7 +4035,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" s="183"/>
       <c r="E64" s="184"/>
@@ -4071,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" s="82">
         <v>3000</v>
@@ -4104,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" s="82"/>
       <c r="E66" s="81"/>
@@ -4140,10 +4142,10 @@
         <v>10</v>
       </c>
       <c r="B67" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="100" t="s">
         <v>120</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>121</v>
       </c>
       <c r="D67" s="101"/>
       <c r="E67" s="100"/>
@@ -4151,7 +4153,7 @@
       <c r="G67" s="99"/>
       <c r="H67" s="102"/>
       <c r="I67" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J67" s="103"/>
       <c r="K67" s="103"/>
@@ -4176,10 +4178,10 @@
         <v>11</v>
       </c>
       <c r="B68" s="99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="101"/>
       <c r="E68" s="100"/>
@@ -4210,10 +4212,10 @@
         <v>12</v>
       </c>
       <c r="B69" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="100" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="100" t="s">
-        <v>129</v>
       </c>
       <c r="D69" s="101"/>
       <c r="E69" s="100"/>
@@ -4221,7 +4223,7 @@
       <c r="G69" s="99"/>
       <c r="H69" s="102"/>
       <c r="I69" s="99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J69" s="103"/>
       <c r="K69" s="103"/>
@@ -4270,13 +4272,13 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="199"/>
-      <c r="C71" s="199"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="199"/>
+      <c r="A71" s="200" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="201"/>
+      <c r="C71" s="201"/>
+      <c r="D71" s="201"/>
+      <c r="E71" s="201"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
@@ -4353,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73" s="143"/>
       <c r="E73" s="144"/>
@@ -4397,7 +4399,7 @@
       <c r="E74" s="148"/>
       <c r="F74" s="149"/>
       <c r="G74" s="145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H74" s="145" t="s">
         <v>35</v>
@@ -4467,7 +4469,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D76" s="150">
         <v>50</v>
@@ -4507,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D77" s="150" t="s">
         <v>33</v>
@@ -4545,7 +4547,7 @@
         <v>40</v>
       </c>
       <c r="C78" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="150">
         <v>500</v>
@@ -4581,7 +4583,7 @@
         <v>41</v>
       </c>
       <c r="C79" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="150">
         <v>20</v>
@@ -4592,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="H79" s="145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I79" s="145"/>
       <c r="J79" s="77"/>
@@ -4621,7 +4623,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="150">
         <v>50</v>
@@ -4656,10 +4658,10 @@
     <row r="81" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="79"/>
       <c r="B81" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="81" t="s">
         <v>188</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>189</v>
       </c>
       <c r="D81" s="82"/>
       <c r="E81" s="81"/>
@@ -4688,10 +4690,10 @@
     <row r="82" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="79"/>
       <c r="B82" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="82"/>
       <c r="E82" s="81"/>
@@ -4724,10 +4726,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="146" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" s="146" t="s">
-        <v>192</v>
       </c>
       <c r="D83" s="150">
         <v>50</v>
@@ -4769,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="150">
         <v>50</v>
@@ -4808,10 +4810,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="107" t="s">
         <v>123</v>
-      </c>
-      <c r="C85" s="107" t="s">
-        <v>124</v>
       </c>
       <c r="D85" s="108"/>
       <c r="E85" s="109"/>
@@ -4856,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" s="108"/>
       <c r="E86" s="109"/>
@@ -4904,10 +4906,10 @@
         <v>12</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" s="107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87" s="108"/>
       <c r="E87" s="109"/>
@@ -4976,13 +4978,13 @@
       <c r="Z88" s="77"/>
     </row>
     <row r="89" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="200" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="199"/>
-      <c r="C89" s="199"/>
-      <c r="D89" s="199"/>
-      <c r="E89" s="199"/>
+      <c r="A89" s="202" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="201"/>
+      <c r="C89" s="201"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="201"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="50"/>
@@ -5059,7 +5061,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="155"/>
       <c r="E91" s="156"/>
@@ -5097,7 +5099,7 @@
         <v>47</v>
       </c>
       <c r="C92" s="159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="160"/>
       <c r="E92" s="161"/>
@@ -5198,10 +5200,10 @@
     <row r="95" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="79"/>
       <c r="B95" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C95" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" s="82"/>
       <c r="E95" s="81"/>
@@ -5237,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="160"/>
       <c r="E96" s="161"/>
@@ -5292,13 +5294,13 @@
       <c r="Z97" s="54"/>
     </row>
     <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="198" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="199"/>
-      <c r="C98" s="199"/>
-      <c r="D98" s="199"/>
-      <c r="E98" s="199"/>
+      <c r="A98" s="200" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" s="201"/>
+      <c r="C98" s="201"/>
+      <c r="D98" s="201"/>
+      <c r="E98" s="201"/>
       <c r="F98" s="50"/>
       <c r="G98" s="50"/>
       <c r="H98" s="50"/>
@@ -5375,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D100" s="143"/>
       <c r="E100" s="144"/>
@@ -5408,10 +5410,10 @@
     <row r="101" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="79"/>
       <c r="B101" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>188</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>189</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="81"/>
@@ -5445,7 +5447,7 @@
         <v>43</v>
       </c>
       <c r="C102" s="146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" s="150">
         <v>50</v>
@@ -5506,13 +5508,13 @@
       <c r="Z103" s="77"/>
     </row>
     <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="200" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="199"/>
-      <c r="C104" s="199"/>
-      <c r="D104" s="199"/>
-      <c r="E104" s="199"/>
+      <c r="A104" s="202" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="201"/>
+      <c r="C104" s="201"/>
+      <c r="D104" s="201"/>
+      <c r="E104" s="201"/>
       <c r="F104" s="52"/>
       <c r="G104" s="52"/>
       <c r="H104" s="50"/>
@@ -5589,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D106" s="155"/>
       <c r="E106" s="156"/>
@@ -5627,7 +5629,7 @@
         <v>47</v>
       </c>
       <c r="C107" s="159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="160"/>
       <c r="E107" s="161"/>
@@ -6290,13 +6292,13 @@
       <c r="AJ157" s="77"/>
     </row>
     <row r="158" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A158" s="192" t="s">
-        <v>108</v>
-      </c>
-      <c r="B158" s="193"/>
-      <c r="C158" s="193"/>
-      <c r="D158" s="193"/>
-      <c r="E158" s="193"/>
+      <c r="A158" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="195"/>
+      <c r="C158" s="195"/>
+      <c r="D158" s="195"/>
+      <c r="E158" s="195"/>
       <c r="F158" s="58"/>
       <c r="G158" s="58"/>
       <c r="H158" s="57"/>
@@ -6383,7 +6385,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D160" s="114"/>
       <c r="E160" s="115"/>
@@ -6428,10 +6430,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C161" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D161" s="121"/>
       <c r="E161" s="122"/>
@@ -6472,14 +6474,14 @@
         <v>3</v>
       </c>
       <c r="B162" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C162" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D162" s="121"/>
       <c r="E162" s="122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F162" s="119"/>
       <c r="G162" s="119"/>
@@ -6518,10 +6520,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C163" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D163" s="121"/>
       <c r="E163" s="122"/>
@@ -6562,10 +6564,10 @@
         <v>5</v>
       </c>
       <c r="B164" s="119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C164" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D164" s="121"/>
       <c r="E164" s="122"/>
@@ -6606,10 +6608,10 @@
         <v>6</v>
       </c>
       <c r="B165" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="120" t="s">
         <v>115</v>
-      </c>
-      <c r="C165" s="120" t="s">
-        <v>116</v>
       </c>
       <c r="D165" s="121"/>
       <c r="E165" s="122"/>
@@ -6617,7 +6619,7 @@
       <c r="G165" s="119"/>
       <c r="H165" s="123"/>
       <c r="I165" s="119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J165" s="77"/>
       <c r="K165" s="77"/>
@@ -6652,10 +6654,10 @@
         <v>7</v>
       </c>
       <c r="B166" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="120" t="s">
         <v>118</v>
-      </c>
-      <c r="C166" s="120" t="s">
-        <v>119</v>
       </c>
       <c r="D166" s="121"/>
       <c r="E166" s="122"/>
@@ -6730,13 +6732,13 @@
       <c r="AJ167" s="77"/>
     </row>
     <row r="168" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="B168" s="193"/>
-      <c r="C168" s="193"/>
-      <c r="D168" s="193"/>
-      <c r="E168" s="193"/>
+      <c r="A168" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" s="195"/>
+      <c r="C168" s="195"/>
+      <c r="D168" s="195"/>
+      <c r="E168" s="195"/>
       <c r="F168" s="58"/>
       <c r="G168" s="58"/>
       <c r="H168" s="57"/>
@@ -6833,7 +6835,7 @@
         <v>9</v>
       </c>
       <c r="C170" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D170" s="126"/>
       <c r="E170" s="127"/>
@@ -6878,10 +6880,10 @@
         <v>2</v>
       </c>
       <c r="B171" s="119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C171" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D171" s="121"/>
       <c r="E171" s="122"/>
@@ -6922,14 +6924,14 @@
         <v>3</v>
       </c>
       <c r="B172" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C172" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D172" s="121"/>
       <c r="E172" s="122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F172" s="119"/>
       <c r="G172" s="119"/>
@@ -6968,10 +6970,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C173" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D173" s="121"/>
       <c r="E173" s="122"/>
@@ -7012,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C174" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D174" s="121"/>
       <c r="E174" s="122"/>
@@ -7056,10 +7058,10 @@
         <v>6</v>
       </c>
       <c r="B175" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C175" s="120" t="s">
         <v>115</v>
-      </c>
-      <c r="C175" s="120" t="s">
-        <v>116</v>
       </c>
       <c r="D175" s="121"/>
       <c r="E175" s="122"/>
@@ -7067,7 +7069,7 @@
       <c r="G175" s="119"/>
       <c r="H175" s="123"/>
       <c r="I175" s="119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J175" s="77"/>
       <c r="K175" s="77"/>
@@ -7102,10 +7104,10 @@
         <v>7</v>
       </c>
       <c r="B176" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176" s="120" t="s">
         <v>118</v>
-      </c>
-      <c r="C176" s="120" t="s">
-        <v>119</v>
       </c>
       <c r="D176" s="121"/>
       <c r="E176" s="122"/>
@@ -7149,13 +7151,13 @@
         <v>34</v>
       </c>
       <c r="C177" s="120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D177" s="121"/>
       <c r="E177" s="122"/>
       <c r="F177" s="119"/>
       <c r="G177" s="119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H177" s="123"/>
       <c r="I177" s="119"/>
@@ -7190,10 +7192,10 @@
     <row r="178" spans="1:36" s="105" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A178" s="119"/>
       <c r="B178" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D178" s="121"/>
       <c r="E178" s="122"/>
@@ -7232,10 +7234,10 @@
     <row r="179" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="119"/>
       <c r="B179" s="119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C179" s="120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D179" s="121"/>
       <c r="E179" s="122"/>
@@ -7274,10 +7276,10 @@
     <row r="180" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="119"/>
       <c r="B180" s="119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D180" s="121"/>
       <c r="E180" s="122"/>
@@ -7316,10 +7318,10 @@
     <row r="181" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="119"/>
       <c r="B181" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C181" s="120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D181" s="121"/>
       <c r="E181" s="122"/>
@@ -7394,13 +7396,13 @@
       <c r="AJ182" s="77"/>
     </row>
     <row r="183" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="B183" s="193"/>
-      <c r="C183" s="193"/>
-      <c r="D183" s="193"/>
-      <c r="E183" s="193"/>
+      <c r="A183" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" s="195"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="195"/>
+      <c r="E183" s="195"/>
       <c r="F183" s="58"/>
       <c r="G183" s="58"/>
       <c r="H183" s="57"/>
@@ -7497,7 +7499,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D185" s="126"/>
       <c r="E185" s="127"/>
@@ -7545,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="C186" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D186" s="121"/>
       <c r="E186" s="122"/>
@@ -7588,10 +7590,10 @@
         <v>3</v>
       </c>
       <c r="B187" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C187" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D187" s="121"/>
       <c r="E187" s="122"/>
@@ -7632,10 +7634,10 @@
         <v>4</v>
       </c>
       <c r="B188" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="120" t="s">
         <v>134</v>
-      </c>
-      <c r="C188" s="120" t="s">
-        <v>135</v>
       </c>
       <c r="D188" s="121"/>
       <c r="E188" s="122"/>
@@ -7676,10 +7678,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C189" s="120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D189" s="121"/>
       <c r="E189" s="122"/>
@@ -7720,10 +7722,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="120" t="s">
         <v>136</v>
-      </c>
-      <c r="C190" s="120" t="s">
-        <v>137</v>
       </c>
       <c r="D190" s="121"/>
       <c r="E190" s="122"/>
@@ -28485,8 +28487,8 @@
   </sheetPr>
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28503,16 +28505,16 @@
         <v>50</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -28541,7 +28543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="163" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="170"/>
@@ -28573,7 +28575,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="170"/>
       <c r="D3" s="170"/>
@@ -28605,7 +28607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="170"/>
       <c r="D4" s="170"/>
@@ -28637,7 +28639,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="170"/>
       <c r="D5" s="170"/>
@@ -28669,7 +28671,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="170"/>
       <c r="D6" s="170"/>
@@ -28701,7 +28703,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="170"/>
       <c r="D7" s="170"/>
@@ -28768,10 +28770,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="170"/>
       <c r="F9" s="54"/>
@@ -28798,16 +28800,16 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="54"/>
@@ -28834,16 +28836,16 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="54"/>
@@ -28873,13 +28875,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="170"/>
       <c r="F12" s="54"/>
@@ -28906,16 +28908,16 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="170"/>
       <c r="F13" s="54"/>
@@ -28942,16 +28944,16 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="164" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="170"/>
       <c r="F14" s="54"/>
@@ -28981,13 +28983,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="54"/>
@@ -29020,10 +29022,10 @@
         <v>54</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="170"/>
       <c r="F16" s="54"/>
@@ -29056,10 +29058,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="54"/>
@@ -29086,16 +29088,16 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="170"/>
       <c r="F18" s="54"/>
@@ -29128,10 +29130,10 @@
         <v>56</v>
       </c>
       <c r="C19" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="170"/>
       <c r="F19" s="54"/>
@@ -29164,10 +29166,10 @@
         <v>57</v>
       </c>
       <c r="C20" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="170"/>
       <c r="F20" s="54"/>
@@ -29194,16 +29196,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="166" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="170"/>
       <c r="F21" s="54"/>
@@ -29230,16 +29232,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="170"/>
       <c r="F22" s="54"/>
@@ -29266,16 +29268,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="166" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="C23" s="170" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="170" t="s">
-        <v>201</v>
-      </c>
       <c r="D23" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="170"/>
       <c r="F23" s="54"/>
@@ -29308,10 +29310,10 @@
         <v>59</v>
       </c>
       <c r="C24" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="170"/>
       <c r="F24" s="54"/>
@@ -29344,10 +29346,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="54"/>
@@ -29380,10 +29382,10 @@
         <v>61</v>
       </c>
       <c r="C26" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="170"/>
       <c r="F26" s="54"/>
@@ -29416,10 +29418,10 @@
         <v>62</v>
       </c>
       <c r="C27" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="54"/>
@@ -29452,10 +29454,10 @@
         <v>63</v>
       </c>
       <c r="C28" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="170"/>
       <c r="F28" s="54"/>
@@ -29488,10 +29490,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="54"/>
@@ -29521,16 +29523,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -29562,10 +29564,10 @@
         <v>65</v>
       </c>
       <c r="C31" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29598,10 +29600,10 @@
         <v>66</v>
       </c>
       <c r="C32" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29634,10 +29636,10 @@
         <v>67</v>
       </c>
       <c r="C33" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="170" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
@@ -29670,10 +29672,10 @@
         <v>68</v>
       </c>
       <c r="C34" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="170"/>
       <c r="F34" s="54"/>
@@ -29706,10 +29708,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="170" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="170"/>
       <c r="F35" s="54"/>
@@ -29742,7 +29744,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="170"/>
       <c r="E36" s="170"/>
@@ -29864,73 +29866,73 @@
       <c r="Y39" s="54"/>
       <c r="Z39" s="54"/>
     </row>
-    <row r="40" spans="1:26" s="73" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A40" s="188">
+    <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A40" s="174">
         <v>25</v>
       </c>
-      <c r="B40" s="189" t="s">
+      <c r="B40" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="190"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A41" s="174">
+      <c r="C40" s="170"/>
+      <c r="D40" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="170"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+    </row>
+    <row r="41" spans="1:26" s="192" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A41" s="188">
         <v>26</v>
       </c>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="190"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="191"/>
+      <c r="S41" s="191"/>
+      <c r="T41" s="191"/>
+      <c r="U41" s="191"/>
+      <c r="V41" s="191"/>
+      <c r="W41" s="191"/>
+      <c r="X41" s="191"/>
+      <c r="Y41" s="191"/>
+      <c r="Z41" s="191"/>
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
@@ -29942,7 +29944,7 @@
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
       <c r="E42" s="170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -30003,12 +30005,12 @@
         <v>29</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
       <c r="E44" s="170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -30032,46 +30034,46 @@
       <c r="Y44" s="54"/>
       <c r="Z44" s="54"/>
     </row>
-    <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A45" s="174">
+    <row r="45" spans="1:26" s="192" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A45" s="188">
         <v>30</v>
       </c>
-      <c r="B45" s="168" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
+      <c r="B45" s="189" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="191"/>
+      <c r="P45" s="191"/>
+      <c r="Q45" s="191"/>
+      <c r="R45" s="191"/>
+      <c r="S45" s="191"/>
+      <c r="T45" s="191"/>
+      <c r="U45" s="191"/>
+      <c r="V45" s="191"/>
+      <c r="W45" s="191"/>
+      <c r="X45" s="191"/>
+      <c r="Y45" s="191"/>
+      <c r="Z45" s="191"/>
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="174">
         <v>31</v>
       </c>
       <c r="B46" s="168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -30103,7 +30105,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -30135,7 +30137,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="170"/>
       <c r="D48" s="170"/>
@@ -30167,7 +30169,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="170"/>
       <c r="D49" s="170"/>
@@ -57238,13 +57240,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
+      <c r="A3" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="57"/>
@@ -57287,7 +57289,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="64"/>
@@ -57308,7 +57310,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="70"/>
@@ -57324,10 +57326,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="70"/>
@@ -57336,7 +57338,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="67"/>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
@@ -57344,10 +57346,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
@@ -57361,10 +57363,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="70"/>
@@ -57372,10 +57374,10 @@
       <c r="G9" s="67"/>
       <c r="H9" s="71"/>
       <c r="I9" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M9" s="74"/>
     </row>
@@ -57389,10 +57391,10 @@
       <c r="G10" s="67"/>
       <c r="H10" s="71"/>
       <c r="I10" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M10" s="74"/>
     </row>
@@ -57419,36 +57421,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L14" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="74" t="s">
         <v>158</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
         <v>149</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>150</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>152</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
-        <v>155</v>
-      </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -57456,117 +57458,117 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
